--- a/output/0/tRNA-Ser-CGA-4-1.xlsx
+++ b/output/0/tRNA-Ser-CGA-4-1.xlsx
@@ -12,90 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>chr12</t>
   </si>
   <si>
-    <t>56584036</t>
-  </si>
-  <si>
-    <t>56584059</t>
+    <t>56584154</t>
+  </si>
+  <si>
+    <t>56584177</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>56584174</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TGGCCGAGTGGTTAAGGCGT</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>56% (52)</t>
+  </si>
+  <si>
+    <t>71% (55)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>56584157</t>
+  </si>
+  <si>
+    <t>56584180</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>56584039</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CCCCGACACACACACACCTG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>54% (47)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>56584154</t>
-  </si>
-  <si>
-    <t>56584177</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>56584174</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>56584157</t>
-  </si>
-  <si>
-    <t>56584180</t>
   </si>
   <si>
     <t>56584160</t>
@@ -233,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -256,10 +229,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -315,10 +288,10 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -374,10 +347,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -392,22 +365,22 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -421,22 +394,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -448,10 +421,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -463,10 +436,10 @@
         <v>40</v>
       </c>
       <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -480,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -507,89 +480,30 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
         <v>3</v>
       </c>
     </row>
